--- a/Fixtures.xlsx
+++ b/Fixtures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\ipl_score_prediction-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E734F8-59A9-4B80-9210-8726AE0EA757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD26E61C-34CD-41BD-8DB9-49B473B75702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="235">
   <si>
     <t>MATCH ID</t>
   </si>
@@ -737,9 +737,6 @@
   </si>
   <si>
     <t>Sunrisers Hyderabad vs Punjab Kings, 07:30 PM</t>
-  </si>
-  <si>
-    <t>Demo vs Demo</t>
   </si>
 </sst>
 </file>
@@ -830,7 +827,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -844,18 +841,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1195,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1243,2124 +1228,2107 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8">
-        <v>44628</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="9"/>
+      <c r="A2">
+        <v>1304047</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6">
+        <v>44646</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>1304047</v>
+        <v>1304048</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>1304048</v>
+        <v>1304049</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6">
         <v>44647</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>1304049</v>
+        <v>1304050</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="6">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="D5" t="s">
         <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>1304050</v>
+        <v>1304051</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="6">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="D6" t="s">
         <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>1304051</v>
+        <v>1304052</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="D7" t="s">
         <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>1304052</v>
+        <v>1304053</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="6">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="D8" t="s">
         <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>1304053</v>
+        <v>1304054</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="6">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="D9" t="s">
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>1304054</v>
+        <v>1304055</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="6">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>1304055</v>
+        <v>1304056</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="6">
         <v>44653</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>1304056</v>
+        <v>1304057</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="6">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="D12" t="s">
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>1304057</v>
+        <v>1304058</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="6">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="D13" t="s">
         <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>1304058</v>
+        <v>1304059</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="6">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="D14" t="s">
         <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>1304059</v>
+        <v>1304060</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="6">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="D15" t="s">
         <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>1304060</v>
+        <v>1304061</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="6">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="D16" t="s">
         <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>1304061</v>
+        <v>1304062</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" s="6">
-        <v>44658</v>
+        <v>44659</v>
       </c>
       <c r="D17" t="s">
         <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>1304062</v>
+        <v>1304063</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="6">
-        <v>44659</v>
+        <v>44660</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>1304063</v>
+        <v>1304064</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="6">
         <v>44660</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>1304064</v>
+        <v>1304065</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" s="6">
-        <v>44660</v>
+        <v>44661</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>1304065</v>
+        <v>1304066</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" s="6">
         <v>44661</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>1304066</v>
+        <v>1304067</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" s="6">
-        <v>44661</v>
+        <v>44662</v>
       </c>
       <c r="D22" t="s">
         <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>1304067</v>
+        <v>1304068</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" s="6">
-        <v>44662</v>
+        <v>44663</v>
       </c>
       <c r="D23" t="s">
         <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H23" t="s">
         <v>93</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>1304068</v>
+        <v>1304069</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" s="6">
-        <v>44663</v>
+        <v>44664</v>
       </c>
       <c r="D24" t="s">
         <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>1304069</v>
+        <v>1304070</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" s="6">
-        <v>44664</v>
+        <v>44665</v>
       </c>
       <c r="D25" t="s">
         <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>1304070</v>
+        <v>1304071</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C26" s="6">
-        <v>44665</v>
+        <v>44666</v>
       </c>
       <c r="D26" t="s">
         <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>1304071</v>
+        <v>1304072</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" s="6">
-        <v>44666</v>
+        <v>44667</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H27" t="s">
         <v>92</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>1304072</v>
+        <v>1304073</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" s="6">
         <v>44667</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>1304073</v>
+        <v>1304074</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29" s="6">
-        <v>44667</v>
+        <v>44668</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H29" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>1304074</v>
+        <v>1304075</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30" s="6">
         <v>44668</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>1304075</v>
+        <v>1304076</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="6">
-        <v>44668</v>
+        <v>44669</v>
       </c>
       <c r="D31" t="s">
         <v>79</v>
       </c>
       <c r="E31" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F31" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>1304076</v>
+        <v>1304077</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="6">
-        <v>44669</v>
+        <v>44670</v>
       </c>
       <c r="D32" t="s">
         <v>79</v>
       </c>
       <c r="E32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>1304077</v>
+        <v>1304078</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C33" s="6">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="D33" t="s">
         <v>79</v>
       </c>
       <c r="E33" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G33" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>1304078</v>
+        <v>1304079</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34" s="6">
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="D34" t="s">
         <v>79</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>1304079</v>
+        <v>1304080</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C35" s="6">
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="D35" t="s">
         <v>79</v>
       </c>
       <c r="E35" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>1304080</v>
+        <v>1304081</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" s="6">
-        <v>44673</v>
+        <v>44674</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E36" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F36" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>1304081</v>
+        <v>1304082</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37" s="6">
         <v>44674</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>1304082</v>
+        <v>1304083</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" s="6">
-        <v>44674</v>
+        <v>44675</v>
       </c>
       <c r="D38" t="s">
         <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F38" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>1304083</v>
+        <v>1304084</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C39" s="6">
-        <v>44675</v>
+        <v>44676</v>
       </c>
       <c r="D39" t="s">
         <v>79</v>
       </c>
       <c r="E39" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F39" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H39" t="s">
         <v>91</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>1304084</v>
+        <v>1304085</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" s="6">
-        <v>44676</v>
+        <v>44677</v>
       </c>
       <c r="D40" t="s">
         <v>79</v>
       </c>
       <c r="E40" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H40" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>1304085</v>
+        <v>1304086</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" s="6">
-        <v>44677</v>
+        <v>44678</v>
       </c>
       <c r="D41" t="s">
         <v>79</v>
       </c>
       <c r="E41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F41" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G41" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H41" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>1304086</v>
+        <v>1304087</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C42" s="6">
-        <v>44678</v>
+        <v>44679</v>
       </c>
       <c r="D42" t="s">
         <v>79</v>
       </c>
       <c r="E42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F42" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H42" t="s">
         <v>91</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>1304087</v>
+        <v>1304088</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" s="6">
-        <v>44679</v>
+        <v>44680</v>
       </c>
       <c r="D43" t="s">
         <v>79</v>
       </c>
       <c r="E43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H43" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>1304088</v>
+        <v>1304089</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C44" s="6">
-        <v>44680</v>
+        <v>44681</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>1304089</v>
+        <v>1304090</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C45" s="6">
         <v>44681</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E45" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F45" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G45" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>1304090</v>
+        <v>1304091</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C46" s="6">
-        <v>44681</v>
+        <v>44682</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>1304091</v>
+        <v>1304092</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C47" s="6">
         <v>44682</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F47" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H47" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>1304092</v>
+        <v>1304093</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C48" s="6">
-        <v>44682</v>
+        <v>44683</v>
       </c>
       <c r="D48" t="s">
         <v>79</v>
       </c>
       <c r="E48" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F48" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>1304093</v>
+        <v>1304094</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49" s="6">
-        <v>44683</v>
+        <v>44684</v>
       </c>
       <c r="D49" t="s">
         <v>79</v>
       </c>
       <c r="E49" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F49" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H49" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>1304094</v>
+        <v>1304095</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50" s="6">
-        <v>44684</v>
+        <v>44685</v>
       </c>
       <c r="D50" t="s">
         <v>79</v>
       </c>
       <c r="E50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G50" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H50" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>1304095</v>
+        <v>1304096</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C51" s="6">
-        <v>44685</v>
+        <v>44686</v>
       </c>
       <c r="D51" t="s">
         <v>79</v>
       </c>
       <c r="E51" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F51" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G51" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>1304096</v>
+        <v>1304097</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C52" s="6">
-        <v>44686</v>
+        <v>44687</v>
       </c>
       <c r="D52" t="s">
         <v>79</v>
       </c>
       <c r="E52" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F52" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G52" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H52" t="s">
         <v>92</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>1304097</v>
+        <v>1304098</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C53" s="6">
-        <v>44687</v>
+        <v>44688</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G53" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>1304098</v>
+        <v>1304099</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C54" s="6">
         <v>44688</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E54" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F54" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H54" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>1304099</v>
+        <v>1304100</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C55" s="6">
-        <v>44688</v>
+        <v>44689</v>
       </c>
       <c r="D55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E55" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F55" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H55" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>1304100</v>
+        <v>1304101</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C56" s="6">
         <v>44689</v>
       </c>
       <c r="D56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E56" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F56" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G56" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H56" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>1304101</v>
+        <v>1304102</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C57" s="6">
-        <v>44689</v>
+        <v>44690</v>
       </c>
       <c r="D57" t="s">
         <v>79</v>
       </c>
       <c r="E57" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F57" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H57" t="s">
         <v>93</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>1304102</v>
+        <v>1304103</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C58" s="6">
-        <v>44690</v>
+        <v>44691</v>
       </c>
       <c r="D58" t="s">
         <v>79</v>
       </c>
       <c r="E58" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F58" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G58" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H58" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>1304103</v>
+        <v>1304104</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C59" s="6">
-        <v>44691</v>
+        <v>44692</v>
       </c>
       <c r="D59" t="s">
         <v>79</v>
       </c>
       <c r="E59" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F59" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G59" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>1304104</v>
+        <v>1304105</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C60" s="6">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="D60" t="s">
         <v>79</v>
       </c>
       <c r="E60" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F60" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G60" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H60" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>1304105</v>
+        <v>1304106</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C61" s="6">
-        <v>44693</v>
+        <v>44694</v>
       </c>
       <c r="D61" t="s">
         <v>79</v>
       </c>
       <c r="E61" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F61" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G61" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H61" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>1304106</v>
+        <v>1304107</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C62" s="6">
-        <v>44694</v>
+        <v>44695</v>
       </c>
       <c r="D62" t="s">
         <v>79</v>
       </c>
       <c r="E62" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F62" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G62" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H62" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>1304107</v>
+        <v>1304108</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C63" s="6">
-        <v>44695</v>
+        <v>44696</v>
       </c>
       <c r="D63" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E63" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G63" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H63" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>1304108</v>
+        <v>1304109</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C64" s="6">
         <v>44696</v>
       </c>
       <c r="D64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E64" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F64" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G64" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>1304109</v>
+        <v>1304110</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C65" s="6">
-        <v>44696</v>
+        <v>44697</v>
       </c>
       <c r="D65" t="s">
         <v>79</v>
       </c>
       <c r="E65" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F65" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G65" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H65" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>1304110</v>
+        <v>1304111</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C66" s="6">
-        <v>44697</v>
+        <v>44698</v>
       </c>
       <c r="D66" t="s">
         <v>79</v>
       </c>
       <c r="E66" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F66" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G66" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H66" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>1304111</v>
+        <v>1304112</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C67" s="6">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="D67" t="s">
         <v>79</v>
       </c>
       <c r="E67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F67" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>1304112</v>
+        <v>1304113</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C68" s="6">
-        <v>44699</v>
+        <v>44700</v>
       </c>
       <c r="D68" t="s">
         <v>79</v>
       </c>
       <c r="E68" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G68" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>1304113</v>
+        <v>1304114</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C69" s="6">
-        <v>44700</v>
+        <v>44701</v>
       </c>
       <c r="D69" t="s">
         <v>79</v>
       </c>
       <c r="E69" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F69" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G69" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>1304114</v>
+        <v>1304115</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C70" s="6">
-        <v>44701</v>
+        <v>44702</v>
       </c>
       <c r="D70" t="s">
         <v>79</v>
       </c>
       <c r="E70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F70" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G70" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>1304115</v>
+        <v>1304116</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C71" s="6">
-        <v>44702</v>
+        <v>44703</v>
       </c>
       <c r="D71" t="s">
         <v>79</v>
       </c>
       <c r="E71" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F71" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H71" t="s">
         <v>91</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>1304116</v>
-      </c>
-      <c r="B72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72" s="6">
-        <v>44703</v>
-      </c>
-      <c r="D72" t="s">
-        <v>79</v>
-      </c>
-      <c r="E72" t="s">
-        <v>85</v>
-      </c>
-      <c r="F72" t="s">
-        <v>83</v>
-      </c>
-      <c r="G72" t="s">
-        <v>234</v>
-      </c>
-      <c r="H72" t="s">
-        <v>91</v>
-      </c>
-      <c r="I72" s="4" t="s">
         <v>164</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="I7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="I9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="I11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="I13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="I15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="I17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="I19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="I21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="I23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="I25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="I27" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I28" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="I29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I30" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="I31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="I33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="I35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="I37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="I39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="I41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="I43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="I45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="I47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="I49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="I51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="I52" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="I53" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="I54" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="I55" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="I56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="I57" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="I58" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="I59" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="I60" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="I61" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="I62" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="I63" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="I64" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="I65" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="I66" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="I67" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="I68" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="I69" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="I70" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="I71" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="I72" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="I16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="I20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="I22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="I24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="I26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="I28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="I30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="I32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="I34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="I36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="I38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="I40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="I42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="I44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="I46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="I48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="I50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="I51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="I52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="I53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="I54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="I55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="I56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="I57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="I58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="I59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="I60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="I61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="I62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="I63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="I64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="I65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="I66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="I67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="I68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="I69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="I70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="I71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
